--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_LSPMW.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_LSPMW.xlsx
@@ -441,25 +441,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>77.70237135815059</v>
+        <v>77.54729539387803</v>
       </c>
       <c r="C2">
-        <v>98.60581918998381</v>
+        <v>86.77857777497493</v>
       </c>
       <c r="D2">
-        <v>99.33398381661686</v>
+        <v>99.28796498491634</v>
       </c>
       <c r="E2">
-        <v>99.00514260894811</v>
+        <v>99.00301719861628</v>
       </c>
       <c r="F2">
-        <v>98.45075927694064</v>
+        <v>98.43118928495244</v>
       </c>
       <c r="G2">
-        <v>97.68259883355253</v>
+        <v>97.48133270091155</v>
       </c>
       <c r="H2">
-        <v>96.5261452464843</v>
+        <v>96.16702908113382</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -467,25 +467,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>75.77846755094859</v>
+        <v>72.93533401447822</v>
       </c>
       <c r="C3">
-        <v>96.23590702749604</v>
+        <v>84.52051087056736</v>
       </c>
       <c r="D3">
-        <v>99.52080922035734</v>
+        <v>99.82890404885022</v>
       </c>
       <c r="E3">
-        <v>98.98992403074199</v>
+        <v>99.08800181643024</v>
       </c>
       <c r="F3">
-        <v>98.56218366539666</v>
+        <v>98.65368621385912</v>
       </c>
       <c r="G3">
-        <v>97.70223615406822</v>
+        <v>97.67739155550548</v>
       </c>
       <c r="H3">
-        <v>96.50022318977446</v>
+        <v>96.14405628128601</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -493,25 +493,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>75.20743998359899</v>
+        <v>81.54412084501246</v>
       </c>
       <c r="C4">
-        <v>97.54175451029815</v>
+        <v>87.07670334766523</v>
       </c>
       <c r="D4">
-        <v>99.12823317900448</v>
+        <v>99.17648484379592</v>
       </c>
       <c r="E4">
-        <v>98.9208880114595</v>
+        <v>98.75962292723175</v>
       </c>
       <c r="F4">
-        <v>98.57747661296389</v>
+        <v>98.48943212682451</v>
       </c>
       <c r="G4">
-        <v>97.69081729771688</v>
+        <v>97.54081768555753</v>
       </c>
       <c r="H4">
-        <v>96.45370222769817</v>
+        <v>96.12087211771987</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -519,25 +519,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>79.20652847910718</v>
+        <v>81.7136439874506</v>
       </c>
       <c r="C5">
-        <v>98.33209900230415</v>
+        <v>85.623219384653</v>
       </c>
       <c r="D5">
-        <v>99.36279191333105</v>
+        <v>99.19831845757466</v>
       </c>
       <c r="E5">
-        <v>98.94734271127797</v>
+        <v>98.8753604890271</v>
       </c>
       <c r="F5">
-        <v>98.62040813469125</v>
+        <v>98.41695352723578</v>
       </c>
       <c r="G5">
-        <v>97.77385118447989</v>
+        <v>97.51623740413596</v>
       </c>
       <c r="H5">
-        <v>96.53795325570555</v>
+        <v>96.10456965376653</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -545,25 +545,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>76.46960155881595</v>
+        <v>81.23965969794186</v>
       </c>
       <c r="C6">
-        <v>98.08567711618335</v>
+        <v>86.35133952668984</v>
       </c>
       <c r="D6">
-        <v>99.26512136616688</v>
+        <v>99.30402503302503</v>
       </c>
       <c r="E6">
-        <v>98.89731205258406</v>
+        <v>98.9111240014831</v>
       </c>
       <c r="F6">
-        <v>98.42754408867164</v>
+        <v>98.41594449504211</v>
       </c>
       <c r="G6">
-        <v>97.75757386308915</v>
+        <v>97.59803578628569</v>
       </c>
       <c r="H6">
-        <v>96.48899652539077</v>
+        <v>96.13039632871283</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_LSPMW.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_LSPMW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>d=1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -407,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,10 +438,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>77.54729539387803</v>
@@ -456,15 +462,18 @@
         <v>98.43118928495244</v>
       </c>
       <c r="G2">
+        <v>97.97140634294182</v>
+      </c>
+      <c r="H2">
         <v>97.48133270091155</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>96.16702908113382</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>72.93533401447822</v>
@@ -482,15 +491,18 @@
         <v>98.65368621385912</v>
       </c>
       <c r="G3">
+        <v>98.15734319214975</v>
+      </c>
+      <c r="H3">
         <v>97.67739155550548</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>96.14405628128601</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>81.54412084501246</v>
@@ -508,15 +520,18 @@
         <v>98.48943212682451</v>
       </c>
       <c r="G4">
+        <v>98.06677039628302</v>
+      </c>
+      <c r="H4">
         <v>97.54081768555753</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>96.12087211771987</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>81.7136439874506</v>
@@ -534,15 +549,18 @@
         <v>98.41695352723578</v>
       </c>
       <c r="G5">
+        <v>98.00915906376689</v>
+      </c>
+      <c r="H5">
         <v>97.51623740413596</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>96.10456965376653</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>81.23965969794186</v>
@@ -560,9 +578,12 @@
         <v>98.41594449504211</v>
       </c>
       <c r="G6">
+        <v>98.02920870325303</v>
+      </c>
+      <c r="H6">
         <v>97.59803578628569</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>96.13039632871283</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_LSPMW.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_LSPMW.xlsx
@@ -462,13 +462,13 @@
         <v>98.43118928495244</v>
       </c>
       <c r="G2">
-        <v>97.97140634294182</v>
+        <v>97.87634702449229</v>
       </c>
       <c r="H2">
-        <v>97.48133270091155</v>
+        <v>97.54939900844225</v>
       </c>
       <c r="I2">
-        <v>96.16702908113382</v>
+        <v>96.29110822582112</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -491,13 +491,13 @@
         <v>98.65368621385912</v>
       </c>
       <c r="G3">
-        <v>98.15734319214975</v>
+        <v>98.18353953819677</v>
       </c>
       <c r="H3">
-        <v>97.67739155550548</v>
+        <v>97.63649770943671</v>
       </c>
       <c r="I3">
-        <v>96.14405628128601</v>
+        <v>96.23228368043365</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -520,13 +520,13 @@
         <v>98.48943212682451</v>
       </c>
       <c r="G4">
-        <v>98.06677039628302</v>
+        <v>98.04254249801228</v>
       </c>
       <c r="H4">
-        <v>97.54081768555753</v>
+        <v>97.47168335959722</v>
       </c>
       <c r="I4">
-        <v>96.12087211771987</v>
+        <v>96.24212606346477</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -549,13 +549,13 @@
         <v>98.41695352723578</v>
       </c>
       <c r="G5">
-        <v>98.00915906376689</v>
+        <v>97.95454774210143</v>
       </c>
       <c r="H5">
-        <v>97.51623740413596</v>
+        <v>97.51271022009249</v>
       </c>
       <c r="I5">
-        <v>96.10456965376653</v>
+        <v>96.21058481004566</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -578,13 +578,13 @@
         <v>98.41594449504211</v>
       </c>
       <c r="G6">
-        <v>98.02920870325303</v>
+        <v>98.0669061578936</v>
       </c>
       <c r="H6">
-        <v>97.59803578628569</v>
+        <v>97.53833081934947</v>
       </c>
       <c r="I6">
-        <v>96.13039632871283</v>
+        <v>96.13680781001516</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_LSPMW.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_LSPMW.xlsx
@@ -447,28 +447,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>77.54729539387803</v>
+        <v>41.21407239481599</v>
       </c>
       <c r="C2">
-        <v>86.77857777497493</v>
+        <v>50.27997645459339</v>
       </c>
       <c r="D2">
-        <v>99.28796498491634</v>
+        <v>98.76064511229146</v>
       </c>
       <c r="E2">
-        <v>99.00301719861628</v>
+        <v>98.99635139675415</v>
       </c>
       <c r="F2">
-        <v>98.43118928495244</v>
+        <v>98.43184127265854</v>
       </c>
       <c r="G2">
-        <v>97.87634702449229</v>
+        <v>97.88301481541673</v>
       </c>
       <c r="H2">
-        <v>97.54939900844225</v>
+        <v>97.57482661492014</v>
       </c>
       <c r="I2">
-        <v>96.29110822582112</v>
+        <v>96.41570945812209</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -476,28 +476,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>72.93533401447822</v>
+        <v>37.34131802952838</v>
       </c>
       <c r="C3">
-        <v>84.52051087056736</v>
+        <v>50.31986102939189</v>
       </c>
       <c r="D3">
-        <v>99.82890404885022</v>
+        <v>99.71014989888644</v>
       </c>
       <c r="E3">
-        <v>99.08800181643024</v>
+        <v>99.09653945161313</v>
       </c>
       <c r="F3">
-        <v>98.65368621385912</v>
+        <v>98.6960493529439</v>
       </c>
       <c r="G3">
-        <v>98.18353953819677</v>
+        <v>98.18202371078335</v>
       </c>
       <c r="H3">
-        <v>97.63649770943671</v>
+        <v>97.6380440873115</v>
       </c>
       <c r="I3">
-        <v>96.23228368043365</v>
+        <v>96.47750989111242</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -505,28 +505,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>81.54412084501246</v>
+        <v>40.89248999240458</v>
       </c>
       <c r="C4">
-        <v>87.07670334766523</v>
+        <v>50.4669486616876</v>
       </c>
       <c r="D4">
-        <v>99.17648484379592</v>
+        <v>98.59284432934837</v>
       </c>
       <c r="E4">
-        <v>98.75962292723175</v>
+        <v>98.75992146192954</v>
       </c>
       <c r="F4">
-        <v>98.48943212682451</v>
+        <v>98.47107576875848</v>
       </c>
       <c r="G4">
-        <v>98.04254249801228</v>
+        <v>98.02337899631405</v>
       </c>
       <c r="H4">
-        <v>97.47168335959722</v>
+        <v>97.50420190105956</v>
       </c>
       <c r="I4">
-        <v>96.24212606346477</v>
+        <v>96.20085015057667</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -534,28 +534,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>81.7136439874506</v>
+        <v>41.91689552565555</v>
       </c>
       <c r="C5">
-        <v>85.623219384653</v>
+        <v>50.04879908354403</v>
       </c>
       <c r="D5">
-        <v>99.19831845757466</v>
+        <v>98.57567300524754</v>
       </c>
       <c r="E5">
-        <v>98.8753604890271</v>
+        <v>98.86447131491084</v>
       </c>
       <c r="F5">
-        <v>98.41695352723578</v>
+        <v>98.41837211145697</v>
       </c>
       <c r="G5">
-        <v>97.95454774210143</v>
+        <v>97.96005616704474</v>
       </c>
       <c r="H5">
-        <v>97.51271022009249</v>
+        <v>97.5778095837375</v>
       </c>
       <c r="I5">
-        <v>96.21058481004566</v>
+        <v>96.27002368171118</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -563,28 +563,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>81.23965969794186</v>
+        <v>42.62867068634834</v>
       </c>
       <c r="C6">
-        <v>86.35133952668984</v>
+        <v>50.3738104481995</v>
       </c>
       <c r="D6">
-        <v>99.30402503302503</v>
+        <v>98.7917614730486</v>
       </c>
       <c r="E6">
-        <v>98.9111240014831</v>
+        <v>98.90412690575128</v>
       </c>
       <c r="F6">
-        <v>98.41594449504211</v>
+        <v>98.39599034927427</v>
       </c>
       <c r="G6">
-        <v>98.0669061578936</v>
+        <v>98.09453442584716</v>
       </c>
       <c r="H6">
-        <v>97.53833081934947</v>
+        <v>97.52955856155765</v>
       </c>
       <c r="I6">
-        <v>96.13680781001516</v>
+        <v>96.09100202511857</v>
       </c>
     </row>
   </sheetData>
